--- a/dist/document/dest/2020/10/products/Esofar.xlsx
+++ b/dist/document/dest/2020/10/products/Esofar.xlsx
@@ -421,11 +421,17 @@
       <c r="A2" t="str">
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
+      <c r="B2" t="str">
+        <v>Nguyễn</v>
+      </c>
+      <c r="C2" t="str">
+        <v>An</v>
+      </c>
       <c r="D2" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E2" s="1">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -433,16 +439,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B3" t="str">
-        <v>Nguyễn</v>
+        <v>Nguyễn Thị Hồng</v>
       </c>
       <c r="C3" t="str">
-        <v>An</v>
+        <v>Anh</v>
       </c>
       <c r="D3" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E3" s="1">
-        <v>122</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
@@ -450,16 +456,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B4" t="str">
-        <v>Nguyễn Thị Hồng</v>
+        <v>Lương Thanh</v>
       </c>
       <c r="C4" t="str">
-        <v>Anh</v>
+        <v>Bửu</v>
       </c>
       <c r="D4" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E4" s="1">
-        <v>205</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="5">
@@ -467,16 +473,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B5" t="str">
-        <v>Lương Thanh</v>
+        <v>Trần Thị</v>
       </c>
       <c r="C5" t="str">
-        <v>Bửu</v>
+        <v>Diễm</v>
       </c>
       <c r="D5" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E5" s="1">
-        <v>4826</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6">
@@ -484,16 +490,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B6" t="str">
-        <v>Trần Thị</v>
+        <v>Bùi Kim</v>
       </c>
       <c r="C6" t="str">
-        <v>Diễm</v>
+        <v>Dung</v>
       </c>
       <c r="D6" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E6" s="1">
-        <v>354</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +507,7 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B7" t="str">
-        <v>Bùi Kim</v>
+        <v>Ngô Thị Lệ</v>
       </c>
       <c r="C7" t="str">
         <v>Dung</v>
@@ -510,7 +516,7 @@
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E7" s="1">
-        <v>2196</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -518,16 +524,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B8" t="str">
-        <v>Ngô Thị Lệ</v>
+        <v>Nguyễn Tấn</v>
       </c>
       <c r="C8" t="str">
-        <v>Dung</v>
+        <v>Dũng</v>
       </c>
       <c r="D8" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E8" s="1">
-        <v>75</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9">
@@ -535,16 +541,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B9" t="str">
-        <v>Nguyễn Tấn</v>
+        <v>Trần Duy</v>
       </c>
       <c r="C9" t="str">
-        <v>Dũng</v>
+        <v>Hưng</v>
       </c>
       <c r="D9" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E9" s="1">
-        <v>540</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -552,16 +558,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B10" t="str">
-        <v>Trần Duy</v>
+        <v>Nguyễn Thị Kim</v>
       </c>
       <c r="C10" t="str">
-        <v>Hưng</v>
+        <v>Hường</v>
       </c>
       <c r="D10" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E10" s="1">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -569,16 +575,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B11" t="str">
-        <v>Nguyễn Thị Kim</v>
+        <v>Đỗ Ngọc Anh</v>
       </c>
       <c r="C11" t="str">
-        <v>Hường</v>
+        <v>Khoa</v>
       </c>
       <c r="D11" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E11" s="1">
-        <v>28</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
@@ -586,16 +592,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B12" t="str">
-        <v>Đỗ Ngọc Anh</v>
+        <v>Phùng Trọng</v>
       </c>
       <c r="C12" t="str">
-        <v>Khoa</v>
+        <v>Kiên</v>
       </c>
       <c r="D12" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E12" s="1">
-        <v>262</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13">
@@ -603,16 +609,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B13" t="str">
-        <v>Phùng Trọng</v>
+        <v>Lý Thanh</v>
       </c>
       <c r="C13" t="str">
-        <v>Kiên</v>
+        <v>Lãm</v>
       </c>
       <c r="D13" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E13" s="1">
-        <v>660</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="14">
@@ -620,16 +626,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B14" t="str">
-        <v>Lý Thanh</v>
+        <v>Nguyễn Đình</v>
       </c>
       <c r="C14" t="str">
-        <v>Lãm</v>
+        <v>Linh</v>
       </c>
       <c r="D14" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E14" s="1">
-        <v>1944</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15">
@@ -637,16 +643,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B15" t="str">
-        <v>Nguyễn Đình</v>
+        <v>Mai Quang Vĩnh</v>
       </c>
       <c r="C15" t="str">
-        <v>Linh</v>
+        <v>Long</v>
       </c>
       <c r="D15" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E15" s="1">
-        <v>740</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16">
@@ -654,16 +660,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B16" t="str">
-        <v>Mai Quang Vĩnh</v>
+        <v>Ngô Minh</v>
       </c>
       <c r="C16" t="str">
-        <v>Long</v>
+        <v>Lý</v>
       </c>
       <c r="D16" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E16" s="1">
-        <v>216</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -671,16 +677,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B17" t="str">
-        <v>Ngô Minh</v>
+        <v>Nguyễn Thi</v>
       </c>
       <c r="C17" t="str">
-        <v>Lý</v>
+        <v>Phú</v>
       </c>
       <c r="D17" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E17" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -688,16 +694,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B18" t="str">
-        <v>Nguyễn Thi</v>
+        <v>Nguyễn Đăng</v>
       </c>
       <c r="C18" t="str">
-        <v>Phú</v>
+        <v>Sảng</v>
       </c>
       <c r="D18" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E18" s="1">
-        <v>22</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19">
@@ -705,16 +711,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B19" t="str">
-        <v>Nguyễn Đăng</v>
+        <v>Trương Công</v>
       </c>
       <c r="C19" t="str">
-        <v>Sảng</v>
+        <v>Thành</v>
       </c>
       <c r="D19" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E19" s="1">
-        <v>562</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
@@ -722,7 +728,7 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B20" t="str">
-        <v>Trương Công</v>
+        <v>Võ Hiếu</v>
       </c>
       <c r="C20" t="str">
         <v>Thành</v>
@@ -731,7 +737,7 @@
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E20" s="1">
-        <v>188</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
@@ -739,16 +745,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B21" t="str">
-        <v>Võ Hiếu</v>
+        <v>Nại Thị Hương</v>
       </c>
       <c r="C21" t="str">
-        <v>Thành</v>
+        <v>Thoang</v>
       </c>
       <c r="D21" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E21" s="1">
-        <v>243</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -756,16 +762,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B22" t="str">
-        <v>Nại Thị Hương</v>
+        <v>Phạm Thiện</v>
       </c>
       <c r="C22" t="str">
-        <v>Thoang</v>
+        <v>Thông</v>
       </c>
       <c r="D22" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E22" s="1">
-        <v>20</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="23">
@@ -773,16 +779,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B23" t="str">
-        <v>Phạm Thiện</v>
+        <v>Phạm Thị Thu</v>
       </c>
       <c r="C23" t="str">
-        <v>Thông</v>
+        <v>Thuỷ</v>
       </c>
       <c r="D23" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E23" s="1">
-        <v>1374</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -790,16 +796,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B24" t="str">
-        <v>Phạm Thị Thu</v>
+        <v>Lê Đình</v>
       </c>
       <c r="C24" t="str">
-        <v>Thuỷ</v>
+        <v>Tín</v>
       </c>
       <c r="D24" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E24" s="1">
-        <v>30</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="25">
@@ -807,16 +813,16 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B25" t="str">
-        <v>Lê Đình</v>
+        <v>Nguyễn Xuân</v>
       </c>
       <c r="C25" t="str">
-        <v>Tín</v>
+        <v>Trình</v>
       </c>
       <c r="D25" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E25" s="1">
-        <v>1631</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -824,33 +830,27 @@
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
       <c r="B26" t="str">
-        <v>Nguyễn Xuân</v>
+        <v>Nguyễn Tuấn</v>
       </c>
       <c r="C26" t="str">
-        <v>Trình</v>
+        <v>Vũ</v>
       </c>
       <c r="D26" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E26" s="1">
-        <v>80</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
         <v>01/09 -&gt; 30/09/2020</v>
       </c>
-      <c r="B27" t="str">
-        <v>Nguyễn Tuấn</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Vũ</v>
-      </c>
       <c r="D27" t="str">
         <v>Esofar (Esomeprazole 40mg)</v>
       </c>
       <c r="E27" s="1">
-        <v>3846</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">

--- a/dist/document/dest/2020/10/products/Esofar.xlsx
+++ b/dist/document/dest/2020/10/products/Esofar.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -19,7 +19,7 @@
     <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC ESOFAR</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -37,16 +37,7 @@
     <t>SL</t>
   </si>
   <si>
-    <t>Nguyễn</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hồng</t>
-  </si>
-  <si>
-    <t>Anh</t>
+    <t>01/10 -&gt; 16/10/2020</t>
   </si>
   <si>
     <t>Lương Thanh</t>
@@ -55,51 +46,12 @@
     <t>Bửu</t>
   </si>
   <si>
-    <t>Trần Thị</t>
-  </si>
-  <si>
-    <t>Diễm</t>
-  </si>
-  <si>
     <t>Bùi Kim</t>
   </si>
   <si>
     <t>Dung</t>
   </si>
   <si>
-    <t>Ngô Thị Lệ</t>
-  </si>
-  <si>
-    <t>Nguyễn Tấn</t>
-  </si>
-  <si>
-    <t>Dũng</t>
-  </si>
-  <si>
-    <t>Trần Duy</t>
-  </si>
-  <si>
-    <t>Hưng</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Kim</t>
-  </si>
-  <si>
-    <t>Hường</t>
-  </si>
-  <si>
-    <t>Đỗ Ngọc Anh</t>
-  </si>
-  <si>
-    <t>Khoa</t>
-  </si>
-  <si>
-    <t>Phùng Trọng</t>
-  </si>
-  <si>
-    <t>Kiên</t>
-  </si>
-  <si>
     <t>Lý Thanh</t>
   </si>
   <si>
@@ -112,67 +64,22 @@
     <t>Linh</t>
   </si>
   <si>
-    <t>Mai Quang Vĩnh</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Ngô Minh</t>
-  </si>
-  <si>
-    <t>Lý</t>
-  </si>
-  <si>
-    <t>Nguyễn Thi</t>
-  </si>
-  <si>
-    <t>Phú</t>
-  </si>
-  <si>
     <t>Nguyễn Đăng</t>
   </si>
   <si>
     <t>Sảng</t>
   </si>
   <si>
-    <t>Trương Công</t>
-  </si>
-  <si>
-    <t>Thành</t>
-  </si>
-  <si>
-    <t>Võ Hiếu</t>
-  </si>
-  <si>
-    <t>Nại Thị Hương</t>
-  </si>
-  <si>
-    <t>Thoang</t>
-  </si>
-  <si>
     <t>Phạm Thiện</t>
   </si>
   <si>
     <t>Thông</t>
   </si>
   <si>
-    <t>Phạm Thị Thu</t>
-  </si>
-  <si>
-    <t>Thuỷ</t>
-  </si>
-  <si>
     <t>Lê Đình</t>
   </si>
   <si>
     <t>Tín</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân</t>
-  </si>
-  <si>
-    <t>Trình</t>
   </si>
   <si>
     <t>Nguyễn Tuấn</t>
@@ -627,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -687,12 +594,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="10">
-        <v>7</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,16 +611,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" s="10">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -717,16 +628,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10">
-        <v>205</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -734,16 +645,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" s="10">
-        <v>4826</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -751,16 +662,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" s="10">
-        <v>354</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,16 +679,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="10">
-        <v>2196</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -785,16 +696,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12" s="10">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -802,16 +713,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E13" s="10">
-        <v>540</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -819,332 +730,39 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="16" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="10">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="10">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="10">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="10">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>18</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="10">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="10">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>20</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="10">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>21</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>22</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>23</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>24</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>25</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="10">
-        <v>3846</v>
-      </c>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="11">
-        <v>20281</v>
-      </c>
-    </row>
-    <row r="33" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
